--- a/Naive Bayes Comparison of Sequential and Balance Dataset.xlsx
+++ b/Naive Bayes Comparison of Sequential and Balance Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ida Bagus Mahendra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4955C82-AF4C-4DD7-BC96-5DF08E1FDC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9913962C-84BE-4B30-BE7E-F74A9F1F1AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F64E3719-840F-460F-87BB-7D15E2076CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{F64E3719-840F-460F-87BB-7D15E2076CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="25% Data" sheetId="1" r:id="rId1"/>
@@ -202,13 +202,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -218,15 +227,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1C8EC4-6B24-495A-AB5D-F57FE818CBD6}">
   <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,16 +635,16 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="12">
         <v>0.71179999999999999</v>
       </c>
       <c r="G5" s="1">
@@ -652,20 +653,20 @@
       <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>8.2200000000000016E-3</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="1">
-        <v>0.71140583554376613</v>
+      <c r="N5" s="2">
+        <v>0.71199429772431755</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -673,13 +674,13 @@
       <c r="Q5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="2">
-        <v>7.5636386871337832E-3</v>
+      <c r="R5" s="12">
+        <v>1.7149972915649386E-2</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
@@ -695,13 +696,13 @@
       <c r="I6" s="2">
         <v>8.0200000000000011E-3</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="1">
-        <v>0.50753681514680271</v>
+        <v>0.50435806182892184</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -710,16 +711,16 @@
         <v>12</v>
       </c>
       <c r="R6" s="1">
-        <v>8.6366653442382802E-3</v>
+        <v>1.2293815612792951E-2</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="12">
         <v>0.71179999999999999</v>
       </c>
       <c r="G7" s="1">
@@ -728,16 +729,16 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>0.73843999999999999</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="1">
-        <v>0.71140583554376613</v>
+      <c r="N7" s="2">
+        <v>0.71199429772431755</v>
       </c>
       <c r="P7" s="1">
         <v>3</v>
@@ -745,33 +746,33 @@
       <c r="Q7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="2">
-        <v>0.5428349494934076</v>
+      <c r="R7" s="12">
+        <v>1.264968061447141</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="12">
         <v>0.59255999999999998</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="1">
-        <v>0.59202796125712698</v>
+      <c r="N8" s="2">
+        <v>0.5932610760600604</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -780,78 +781,78 @@
       <c r="E9" s="2">
         <v>0.70042000000000004</v>
       </c>
-      <c r="K9" s="9">
-        <v>2</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="6">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="1">
-        <v>0.70026525198938938</v>
+        <v>0.69694774889073963</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>0.59883999999999993</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="1">
-        <v>0.57817110458921006</v>
+        <v>0.54412570263499482</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2">
         <v>0.70042000000000004</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="1">
-        <v>0.70026525198938938</v>
+        <v>0.69694774889073963</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>0.61504000000000003</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N12" s="1">
-        <v>0.59233091929068604</v>
+        <v>0.59270542766759915</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -860,71 +861,71 @@
       <c r="E13" s="2">
         <v>0.64418000000000009</v>
       </c>
-      <c r="K13" s="9">
-        <v>3</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="1">
-        <v>0.56286472148541056</v>
+        <v>0.5638902346786191</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2">
         <v>0.59971999999999992</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="1">
-        <v>0.53858605327586462</v>
+        <v>0.54246947451138283</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2">
         <v>0.64418000000000009</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N15" s="1">
-        <v>0.56286472148541056</v>
+        <v>0.5638902346786191</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>0.60907999999999995</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="1">
-        <v>0.54822017389242483</v>
+        <v>0.55094948526921339</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
@@ -986,10 +987,10 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1004,20 +1005,20 @@
       <c r="H20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>0.71140583554376624</v>
+        <v>0.71199690078318001</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -1025,13 +1026,13 @@
       <c r="Q20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="2">
-        <v>7.0852518081664997E-3</v>
+      <c r="R20" s="12">
+        <v>1.0519719123840322E-2</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1047,13 +1048,13 @@
       <c r="I21" s="2">
         <v>8.5600000000000016E-3</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N21" s="1">
-        <v>0.50877723757994453</v>
+        <v>0.51714134995424677</v>
       </c>
       <c r="P21" s="1">
         <v>2</v>
@@ -1062,12 +1063,12 @@
         <v>12</v>
       </c>
       <c r="R21" s="1">
-        <v>8.8209390640258747E-3</v>
+        <v>1.5320205688476534E-2</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1080,16 +1081,16 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>0.68512000000000006</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N22" s="1">
-        <v>0.71140583554376624</v>
+        <v>0.71199690078318001</v>
       </c>
       <c r="P22" s="1">
         <v>3</v>
@@ -1097,33 +1098,33 @@
       <c r="Q22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="2">
-        <v>0.48053967952728227</v>
+      <c r="R22" s="12">
+        <v>1.0289924860000581</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="2">
         <v>0.59315999999999991</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N23" s="1">
-        <v>0.59083644199345364</v>
+        <v>0.59383278518249794</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1132,78 +1133,78 @@
       <c r="E24" s="2">
         <v>0.70150000000000001</v>
       </c>
-      <c r="K24" s="9">
-        <v>2</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N24" s="1">
-        <v>0.68805796488258908</v>
+        <v>0.69747734919238824</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2">
         <v>0.59835000000000005</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N25" s="1">
-        <v>0.55169572618401264</v>
+        <v>0.54852367119474077</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2">
         <v>0.70150000000000001</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N26" s="1">
-        <v>0.69867374005305005</v>
+        <v>0.69747734919238824</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2">
         <v>0.61878</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N27" s="1">
-        <v>0.59167507498701721</v>
+        <v>0.59363618635512705</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1212,99 +1213,99 @@
       <c r="E28" s="2">
         <v>0.63258000000000003</v>
       </c>
-      <c r="K28" s="9">
-        <v>3</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="6">
+        <v>3</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N28" s="1">
-        <v>0.55676392572944255</v>
+        <v>0.5543807848557184</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2">
         <v>0.5970399999999999</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N29" s="1">
-        <v>0.54250635653339541</v>
+        <v>0.54478734745911839</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2">
         <v>0.63258000000000003</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="1">
-        <v>0.55676392572944255</v>
+        <v>0.5543807848557184</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="2">
         <v>0.60314999999999996</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N31" s="1">
-        <v>0.54697234086617907</v>
+        <v>0.54711522557452974</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="L9:L12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="K28:K31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1315,7 +1316,7 @@
   <dimension ref="B2:R31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,16 +1406,16 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="12">
         <v>0.74552000000000007</v>
       </c>
       <c r="G5" s="1">
@@ -1426,17 +1427,17 @@
       <c r="I5" s="2">
         <v>1.308E-2</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="1">
-        <v>0.74505640345056356</v>
+      <c r="N5" s="2">
+        <v>0.74558492573167423</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -1445,16 +1446,16 @@
         <v>9</v>
       </c>
       <c r="R5" s="1">
-        <v>1.3147449493408162E-2</v>
+        <v>1.5412902832031219E-2</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="12">
         <v>0.55766000000000004</v>
       </c>
       <c r="G6" s="1">
@@ -1463,16 +1464,16 @@
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="1">
-        <v>0.55705989835516578</v>
+      <c r="N6" s="2">
+        <v>0.55773754918425822</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -1480,17 +1481,17 @@
       <c r="Q6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="2">
-        <v>1.5945148468017561E-2</v>
+      <c r="R6" s="12">
+        <v>2.1767282485961881E-2</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="12">
         <v>0.74552000000000007</v>
       </c>
       <c r="G7" s="1">
@@ -1499,16 +1500,16 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>2.9413800000000001</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="1">
-        <v>0.74505640345056356</v>
+      <c r="N7" s="2">
+        <v>0.74558492573167423</v>
       </c>
       <c r="P7" s="1">
         <v>3</v>
@@ -1516,33 +1517,33 @@
       <c r="Q7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="2">
-        <v>2.7543097972869823</v>
+      <c r="R7" s="12">
+        <v>3.6064972400665218</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="12">
         <v>0.63754</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="1">
-        <v>0.63699693670571078</v>
+      <c r="N8" s="2">
+        <v>0.63761798266519121</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1551,78 +1552,78 @@
       <c r="E9" s="2">
         <v>0.73771999999999993</v>
       </c>
-      <c r="K9" s="9">
-        <v>2</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="6">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="1">
-        <v>0.72448573324485677</v>
+        <v>0.72908092130216939</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>0.64488000000000001</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="1">
-        <v>0.58334610564063094</v>
+        <v>0.58028174363195029</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2">
         <v>0.73771999999999993</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="1">
-        <v>0.72448573324485677</v>
+        <v>0.72908092130216939</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>0.67134000000000005</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N12" s="1">
-        <v>0.63525941419228482</v>
+        <v>0.63448132950277691</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1631,71 +1632,71 @@
       <c r="E13" s="2">
         <v>0.62228000000000006</v>
       </c>
-      <c r="K13" s="9">
-        <v>3</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="1">
-        <v>0.54094226940942236</v>
+        <v>0.54542213270204098</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2">
         <v>0.63017999999999996</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="1">
-        <v>0.57803622627303652</v>
+        <v>0.58270891115950496</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2">
         <v>0.62228000000000006</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N15" s="1">
-        <v>0.54094226940942236</v>
+        <v>0.54542213270204098</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>0.62265999999999999</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="1">
-        <v>0.55656394786430796</v>
+        <v>0.56141045681711199</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
@@ -1757,16 +1758,16 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="12">
         <v>0.74551000000000001</v>
       </c>
       <c r="G20" s="1">
@@ -1775,20 +1776,20 @@
       <c r="H20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>1.524E-2</v>
       </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="1">
-        <v>0.74521154990999694</v>
+      <c r="N20" s="2">
+        <v>0.74559781528948776</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -1796,17 +1797,17 @@
       <c r="Q20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="2">
-        <v>1.5192079544067334E-2</v>
+      <c r="R20" s="12">
+        <v>2.1477770805358853E-2</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="12">
         <v>0.55830000000000002</v>
       </c>
       <c r="G21" s="1">
@@ -1815,16 +1816,16 @@
       <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>1.8689999999999998E-2</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="1">
-        <v>0.55781596237411846</v>
+      <c r="N21" s="2">
+        <v>0.55840865710362064</v>
       </c>
       <c r="P21" s="1">
         <v>2</v>
@@ -1832,17 +1833,17 @@
       <c r="Q21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="2">
-        <v>1.812746524810786E-2</v>
+      <c r="R21" s="12">
+        <v>2.5315475463867133E-2</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="12">
         <v>0.74551000000000001</v>
       </c>
       <c r="G22" s="1">
@@ -1851,16 +1852,16 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>3.0899399999999999</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="1">
-        <v>0.74521154990999694</v>
+      <c r="N22" s="2">
+        <v>0.74559781528948776</v>
       </c>
       <c r="P22" s="1">
         <v>3</v>
@@ -1868,33 +1869,33 @@
       <c r="Q22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="2">
-        <v>2.9202234506607021</v>
+      <c r="R22" s="12">
+        <v>4.0573563098907419</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="12">
         <v>0.6377799999999999</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="1">
-        <v>0.63736016556651365</v>
+      <c r="N23" s="2">
+        <v>0.63788413083855755</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1903,78 +1904,78 @@
       <c r="E24" s="2">
         <v>0.73916000000000015</v>
       </c>
-      <c r="K24" s="9">
-        <v>2</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N24" s="1">
-        <v>0.72331152842212032</v>
+        <v>0.72843365179172015</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2">
         <v>0.65129999999999999</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N25" s="1">
-        <v>0.58151031342917814</v>
+        <v>0.58136903494478087</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2">
         <v>0.73916000000000015</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N26" s="1">
-        <v>0.72331152842212032</v>
+        <v>0.72843365179172015</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2">
         <v>0.67525999999999997</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N27" s="1">
-        <v>0.63431666698153955</v>
+        <v>0.63403205877912072</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1983,75 +1984,91 @@
       <c r="E28" s="2">
         <v>0.61266999999999994</v>
       </c>
-      <c r="K28" s="9">
-        <v>3</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="6">
+        <v>3</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N28" s="1">
-        <v>0.52895032373514739</v>
+        <v>0.53486579087705532</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2">
         <v>0.63020000000000009</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N29" s="1">
-        <v>0.58045073225141919</v>
+        <v>0.58479456050386369</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2">
         <v>0.61266999999999994</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="1">
-        <v>0.52542403330973142</v>
+        <v>0.53486579087705544</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="2">
         <v>0.61758000000000002</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N31" s="1">
-        <v>0.54884453428632918</v>
+        <v>0.5565466484763617</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="K5:K8"/>
@@ -2060,22 +2077,6 @@
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="K9:K12"/>
     <mergeCell ref="L9:L12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2085,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08812EF-6A59-478C-8C07-80E394A21D1B}">
   <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,10 +2177,10 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2197,17 +2198,17 @@
       <c r="I5" s="2">
         <v>2.0179999999999997E-2</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="1">
-        <v>0.77637168141592883</v>
+        <v>0.77689715614407906</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -2216,16 +2217,16 @@
         <v>9</v>
       </c>
       <c r="R5" s="1">
-        <v>2.1089601516723601E-2</v>
+        <v>2.2880411148071239E-2</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="12">
         <v>0.6077999999999999</v>
       </c>
       <c r="G6" s="1">
@@ -2234,16 +2235,16 @@
       <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>2.5480000000000003E-2</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="1">
-        <v>0.60724771767823094</v>
+      <c r="N6" s="2">
+        <v>0.60803298999593003</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -2251,13 +2252,13 @@
       <c r="Q6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="2">
-        <v>2.367734909057612E-2</v>
+      <c r="R6" s="12">
+        <v>3.2430219650268523E-2</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2270,16 +2271,16 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>6.8121399999999994</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1">
-        <v>0.77637168141592883</v>
+        <v>0.77689715614407906</v>
       </c>
       <c r="P7" s="1">
         <v>3</v>
@@ -2287,33 +2288,33 @@
       <c r="Q7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="2">
-        <v>6.2094171524047814</v>
+      <c r="R7" s="12">
+        <v>8.785440397262537</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="12">
         <v>0.68096000000000001</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="1">
-        <v>0.68033078440830086</v>
+      <c r="N8" s="2">
+        <v>0.68103041617875193</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2322,78 +2323,78 @@
       <c r="E9" s="2">
         <v>0.76227999999999996</v>
       </c>
-      <c r="K9" s="9">
-        <v>2</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="6">
+        <v>2</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="1">
-        <v>0.75451327433628301</v>
+        <v>0.75929477547201318</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>0.67423999999999995</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="1">
-        <v>0.62827951737317467</v>
+        <v>0.62543841266618194</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2">
         <v>0.76227999999999996</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="1">
-        <v>0.72064013952587014</v>
+        <v>0.75929477547201318</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>0.70242000000000004</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N12" s="1">
-        <v>0.67508109212120604</v>
+        <v>0.67685878641943664</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2402,71 +2403,71 @@
       <c r="E13" s="2">
         <v>0.61380000000000001</v>
       </c>
-      <c r="K13" s="9">
-        <v>3</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N13" s="1">
-        <v>0.56442344527151722</v>
+        <v>0.5385531623529114</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2">
         <v>0.6603</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="1">
-        <v>0.62153715344992966</v>
+        <v>0.62780758037163442</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2">
         <v>0.61380000000000001</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N15" s="1">
-        <v>0.53168141592920315</v>
+        <v>0.5385531623529114</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>0.63097999999999987</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="1">
-        <v>0.5689911648342193</v>
+        <v>0.57568721300341053</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
@@ -2528,10 +2529,10 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2549,17 +2550,17 @@
       <c r="I20" s="2">
         <v>2.1420000000000002E-2</v>
       </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>0.77637168141592883</v>
+        <v>0.77690131554498432</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -2568,16 +2569,16 @@
         <v>9</v>
       </c>
       <c r="R20" s="1">
-        <v>2.1814465522766061E-2</v>
+        <v>3.5247468948364218E-2</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="12">
         <v>0.60887000000000013</v>
       </c>
       <c r="G21" s="1">
@@ -2586,16 +2587,16 @@
       <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>2.9580000000000002E-2</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="1">
-        <v>0.60824335905138915</v>
+      <c r="N21" s="2">
+        <v>0.60908624159020774</v>
       </c>
       <c r="P21" s="1">
         <v>2</v>
@@ -2603,13 +2604,13 @@
       <c r="Q21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R21" s="2">
-        <v>2.6139330863952592E-2</v>
+      <c r="R21" s="12">
+        <v>4.1832637786865204E-2</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2622,16 +2623,16 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>6.9554</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N22" s="1">
-        <v>0.77637168141592883</v>
+        <v>0.77690131554498432</v>
       </c>
       <c r="P22" s="1">
         <v>3</v>
@@ -2639,33 +2640,33 @@
       <c r="Q22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="2">
-        <v>6.7635378360748248</v>
+      <c r="R22" s="12">
+        <v>17.5748486757278</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="12">
         <v>0.68135999999999997</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="1">
-        <v>0.68069672787985147</v>
+      <c r="N23" s="2">
+        <v>0.6814221259402562</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2674,78 +2675,78 @@
       <c r="E24" s="2">
         <v>0.76395000000000002</v>
       </c>
-      <c r="K24" s="9">
-        <v>2</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>12</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N24" s="1">
-        <v>0.7538938053097336</v>
+        <v>0.75956239857792274</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2">
         <v>0.67826000000000009</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N25" s="1">
-        <v>0.62819977628367396</v>
+        <v>0.62413517956674647</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="2">
         <v>0.76395000000000002</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N26" s="1">
-        <v>0.7538938053097336</v>
+        <v>0.75956239857792274</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2">
         <v>0.70596999999999999</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N27" s="1">
-        <v>0.67527190910125412</v>
+        <v>0.67742882625990641</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -2754,75 +2755,91 @@
       <c r="E28" s="2">
         <v>0.60143999999999997</v>
       </c>
-      <c r="K28" s="9">
-        <v>3</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="6">
+        <v>3</v>
+      </c>
+      <c r="L28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="N28" s="1">
-        <v>0.51920353982300838</v>
+        <v>0.52526640715002382</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="2">
         <v>0.66220000000000001</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N29" s="1">
-        <v>0.62326755978113346</v>
+        <v>0.62868558514424033</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2">
         <v>0.60143999999999997</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="1">
-        <v>0.51920353982300838</v>
+        <v>0.52526640715002382</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="2">
         <v>0.62543000000000004</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N31" s="1">
-        <v>0.56180963766148906</v>
+        <v>0.56782885998485189</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="K5:K8"/>
@@ -2831,22 +2848,6 @@
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="K9:K12"/>
     <mergeCell ref="L9:L12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L13:L16"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
